--- a/SavingsForecastsNZ.xlsx
+++ b/SavingsForecastsNZ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24805"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="274" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA96603C-2A0A-4022-8D1A-3203E29280E4}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6C2B54-2DC2-4EE5-90E7-F09DBC0A5CE5}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -244,22 +244,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,12 +576,12 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
@@ -591,10 +590,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="23"/>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
@@ -618,17 +617,17 @@
       <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="21">
         <f>B7+($B$6+$B$16)*$B$11/12</f>
-        <v>290</v>
-      </c>
-      <c r="F2" s="25">
+        <v>351.87999999999994</v>
+      </c>
+      <c r="F2" s="22">
         <f>$B$4-$B$17</f>
-        <v>31622.799999999999</v>
-      </c>
-      <c r="G2" s="25">
+        <v>31394.32</v>
+      </c>
+      <c r="G2" s="22">
         <f>B5+$B$18-$B$8</f>
-        <v>2175.6166666666668</v>
+        <v>2622.8544666666662</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -636,22 +635,23 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <f>23.8*52*10</f>
+        <v>12376.000000000002</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="10">
         <f>E2+($B$6+$B$16)*$B$11/12</f>
-        <v>580</v>
-      </c>
-      <c r="F3" s="23">
+        <v>703.75999999999988</v>
+      </c>
+      <c r="F3" s="20">
         <f>F2-$B$17</f>
-        <v>31245.599999999999</v>
-      </c>
-      <c r="G3" s="23">
+        <v>30788.639999999999</v>
+      </c>
+      <c r="G3" s="20">
         <f>G2+$B$18-$B$8</f>
-        <v>4351.2333333333336</v>
+        <v>5245.7089333333324</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -666,15 +666,15 @@
       </c>
       <c r="E4" s="10">
         <f>E3+($B$6+$B$16)*$B$11/12</f>
-        <v>870</v>
-      </c>
-      <c r="F4" s="23">
+        <v>1055.6399999999999</v>
+      </c>
+      <c r="F4" s="20">
         <f t="shared" ref="F4:F13" si="0">F3-$B$17</f>
-        <v>30868.399999999998</v>
-      </c>
-      <c r="G4" s="23">
+        <v>30182.959999999999</v>
+      </c>
+      <c r="G4" s="20">
         <f t="shared" ref="G4:G13" si="1">G3+$B$18-$B$8</f>
-        <v>6526.85</v>
+        <v>7868.5633999999991</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -689,15 +689,15 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" ref="E5:E13" si="2">E4+($B$6+$B$16)*$B$11/12</f>
-        <v>1160</v>
-      </c>
-      <c r="F5" s="23">
+        <v>1407.5199999999998</v>
+      </c>
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
-        <v>30491.199999999997</v>
-      </c>
-      <c r="G5" s="23">
+        <v>29577.279999999999</v>
+      </c>
+      <c r="G5" s="20">
         <f t="shared" si="1"/>
-        <v>8702.4666666666672</v>
+        <v>10491.417866666665</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -712,22 +712,22 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" si="2"/>
-        <v>1450</v>
-      </c>
-      <c r="F6" s="23">
+        <v>1759.3999999999996</v>
+      </c>
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
-        <v>30113.999999999996</v>
-      </c>
-      <c r="G6" s="23">
+        <v>28971.599999999999</v>
+      </c>
+      <c r="G6" s="20">
         <f t="shared" si="1"/>
-        <v>10878.083333333334</v>
+        <v>13114.272333333331</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="8">
@@ -735,15 +735,15 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" si="2"/>
-        <v>1740</v>
-      </c>
-      <c r="F7" s="23">
+        <v>2111.2799999999997</v>
+      </c>
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
-        <v>29736.799999999996</v>
-      </c>
-      <c r="G7" s="23">
+        <v>28365.919999999998</v>
+      </c>
+      <c r="G7" s="20">
         <f t="shared" si="1"/>
-        <v>13053.7</v>
+        <v>15737.126799999998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -758,15 +758,15 @@
       </c>
       <c r="E8" s="10">
         <f t="shared" si="2"/>
-        <v>2030</v>
-      </c>
-      <c r="F8" s="23">
+        <v>2463.16</v>
+      </c>
+      <c r="F8" s="20">
         <f t="shared" si="0"/>
-        <v>29359.599999999995</v>
-      </c>
-      <c r="G8" s="23">
+        <v>27760.239999999998</v>
+      </c>
+      <c r="G8" s="20">
         <f t="shared" si="1"/>
-        <v>15229.316666666666</v>
+        <v>18359.981266666666</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -775,36 +775,36 @@
       </c>
       <c r="E9" s="10">
         <f t="shared" si="2"/>
-        <v>2320</v>
-      </c>
-      <c r="F9" s="23">
+        <v>2815.04</v>
+      </c>
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
-        <v>28982.399999999994</v>
-      </c>
-      <c r="G9" s="23">
+        <v>27154.559999999998</v>
+      </c>
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
-        <v>17404.933333333334</v>
+        <v>20982.835733333333</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="24"/>
       <c r="D10" s="8">
         <v>9</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="2"/>
-        <v>2610</v>
-      </c>
-      <c r="F10" s="23">
+        <v>3166.92</v>
+      </c>
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
-        <v>28605.199999999993</v>
-      </c>
-      <c r="G10" s="23">
+        <v>26548.879999999997</v>
+      </c>
+      <c r="G10" s="20">
         <f t="shared" si="1"/>
-        <v>19580.550000000003</v>
+        <v>23605.690200000001</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -813,22 +813,22 @@
       </c>
       <c r="B11" s="7">
         <f>B2+B3</f>
-        <v>58000</v>
+        <v>70376</v>
       </c>
       <c r="D11" s="8">
         <v>10</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="2"/>
-        <v>2900</v>
-      </c>
-      <c r="F11" s="23">
+        <v>3518.8</v>
+      </c>
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
-        <v>28227.999999999993</v>
-      </c>
-      <c r="G11" s="23">
+        <v>25943.199999999997</v>
+      </c>
+      <c r="G11" s="20">
         <f t="shared" si="1"/>
-        <v>21756.166666666672</v>
+        <v>26228.544666666668</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -837,22 +837,22 @@
       </c>
       <c r="B12" s="6">
         <f>IF(B11&gt;A25,B25,  IF(B11&gt;A24,B24,  IF(B11&gt;A23,B23,  IF(B11&gt;A22,B22,0%))))</f>
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="D12" s="8">
         <v>11</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" si="2"/>
-        <v>3190</v>
-      </c>
-      <c r="F12" s="23">
+        <v>3870.6800000000003</v>
+      </c>
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
-        <v>27850.799999999992</v>
-      </c>
-      <c r="G12" s="23">
+        <v>25337.519999999997</v>
+      </c>
+      <c r="G12" s="20">
         <f t="shared" si="1"/>
-        <v>23931.78333333334</v>
+        <v>28851.399133333336</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -861,22 +861,22 @@
       </c>
       <c r="B13" s="10">
         <f>IF(B12=B25, B21*A22+B22*(A23-A22)+B23*(A24-A23)+B24*(A25-A24)+B25*(B11-A25),  IF( B12=B24, B21*A22+B22*(A23-A22)+B23*(A24-A23)+B24*(B11-A24), IF(B12=B23,B21*A22+B22*( A23-A22)+B23*(B11-A23),  IF( B12=B22,B21*A22+B22*(B11-A22), B21*B11))))</f>
-        <v>10420</v>
+        <v>14144.08</v>
       </c>
       <c r="D13" s="8">
         <v>12</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="2"/>
-        <v>3480</v>
-      </c>
-      <c r="F13" s="23">
+        <v>4222.5600000000004</v>
+      </c>
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
-        <v>27473.599999999991</v>
-      </c>
-      <c r="G13" s="23">
+        <v>24731.839999999997</v>
+      </c>
+      <c r="G13" s="20">
         <f t="shared" si="1"/>
-        <v>26107.400000000009</v>
+        <v>31474.253600000004</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -885,22 +885,22 @@
       </c>
       <c r="B14" s="10">
         <f>B11-B13</f>
-        <v>47580</v>
+        <v>56231.92</v>
       </c>
       <c r="D14" s="8">
         <v>13</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" ref="E14:E38" si="3">E13+($B$6+$B$16)*$B$11/12</f>
-        <v>3770</v>
-      </c>
-      <c r="F14" s="23">
+        <v>4574.4400000000005</v>
+      </c>
+      <c r="F14" s="20">
         <f t="shared" ref="F14:F38" si="4">F13-$B$17</f>
-        <v>27096.399999999991</v>
-      </c>
-      <c r="G14" s="23">
+        <v>24126.159999999996</v>
+      </c>
+      <c r="G14" s="20">
         <f t="shared" ref="G14:G38" si="5">G13+$B$18-$B$8</f>
-        <v>28283.016666666677</v>
+        <v>34097.108066666668</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -909,29 +909,29 @@
       </c>
       <c r="B15" s="10">
         <f>B11/100*1.39</f>
-        <v>806.19999999999993</v>
+        <v>978.2263999999999</v>
       </c>
       <c r="D15" s="8">
         <v>14</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="3"/>
-        <v>4060</v>
-      </c>
-      <c r="F15" s="23">
-        <f t="shared" si="4"/>
-        <v>26719.19999999999</v>
-      </c>
-      <c r="G15" s="23">
-        <f t="shared" si="5"/>
-        <v>30458.633333333346</v>
+        <v>4926.3200000000006</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="4"/>
+        <v>23520.479999999996</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="5"/>
+        <v>36719.962533333332</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="15">
         <f>MIN(3%,B6)</f>
         <v>0.03</v>
       </c>
@@ -940,63 +940,63 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" si="3"/>
-        <v>4350</v>
-      </c>
-      <c r="F16" s="23">
-        <f t="shared" si="4"/>
-        <v>26341.999999999989</v>
-      </c>
-      <c r="G16" s="23">
-        <f t="shared" si="5"/>
-        <v>32634.250000000015</v>
+        <v>5278.2000000000007</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="4"/>
+        <v>22914.799999999996</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="5"/>
+        <v>39342.816999999995</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21">
-        <f>0.12*($B$2/12-1690) + 0.12*B3/26*4</f>
-        <v>377.19999999999993</v>
+      <c r="B17" s="18">
+        <f>IF(B4&gt;0,0.12*($B$2/12-1690) + 0.12*B3/26*4,0)</f>
+        <v>605.67999999999995</v>
       </c>
       <c r="D17" s="8">
         <v>16</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="3"/>
-        <v>4640</v>
-      </c>
-      <c r="F17" s="23">
-        <f t="shared" si="4"/>
-        <v>25964.799999999988</v>
-      </c>
-      <c r="G17" s="23">
-        <f t="shared" si="5"/>
-        <v>34809.866666666683</v>
+        <v>5630.0800000000008</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="4"/>
+        <v>22309.119999999995</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="5"/>
+        <v>41965.671466666659</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="10">
         <f>B14/12-B17-B15/12-B16*B11/12</f>
-        <v>3375.6166666666668</v>
+        <v>3822.8544666666662</v>
       </c>
       <c r="D18" s="8">
         <v>17</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="3"/>
-        <v>4930</v>
-      </c>
-      <c r="F18" s="23">
-        <f t="shared" si="4"/>
-        <v>25587.599999999988</v>
-      </c>
-      <c r="G18" s="23">
-        <f t="shared" si="5"/>
-        <v>36985.483333333352</v>
+        <v>5981.9600000000009</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="4"/>
+        <v>21703.439999999995</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="5"/>
+        <v>44588.525933333323</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1005,37 +1005,37 @@
       </c>
       <c r="E19" s="10">
         <f t="shared" si="3"/>
-        <v>5220</v>
-      </c>
-      <c r="F19" s="23">
-        <f t="shared" si="4"/>
-        <v>25210.399999999987</v>
-      </c>
-      <c r="G19" s="23">
-        <f t="shared" si="5"/>
-        <v>39161.10000000002</v>
+        <v>6333.8400000000011</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="4"/>
+        <v>21097.759999999995</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="5"/>
+        <v>47211.380399999987</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="11"/>
       <c r="D20" s="8">
         <v>19</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="3"/>
-        <v>5510</v>
-      </c>
-      <c r="F20" s="23">
-        <f t="shared" si="4"/>
-        <v>24833.199999999986</v>
-      </c>
-      <c r="G20" s="23">
-        <f t="shared" si="5"/>
-        <v>41336.716666666689</v>
+        <v>6685.7200000000012</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="4"/>
+        <v>20492.079999999994</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="5"/>
+        <v>49834.234866666651</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1050,15 +1050,15 @@
       </c>
       <c r="E21" s="10">
         <f t="shared" si="3"/>
-        <v>5800</v>
-      </c>
-      <c r="F21" s="23">
-        <f t="shared" si="4"/>
-        <v>24455.999999999985</v>
-      </c>
-      <c r="G21" s="23">
-        <f t="shared" si="5"/>
-        <v>43512.333333333358</v>
+        <v>7037.6000000000013</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="4"/>
+        <v>19886.399999999994</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="5"/>
+        <v>52457.089333333315</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1073,15 +1073,15 @@
       </c>
       <c r="E22" s="10">
         <f t="shared" si="3"/>
-        <v>6090</v>
-      </c>
-      <c r="F22" s="23">
-        <f t="shared" si="4"/>
-        <v>24078.799999999985</v>
-      </c>
-      <c r="G22" s="23">
-        <f t="shared" si="5"/>
-        <v>45687.950000000026</v>
+        <v>7389.4800000000014</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="4"/>
+        <v>19280.719999999994</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="5"/>
+        <v>55079.943799999979</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1096,15 +1096,15 @@
       </c>
       <c r="E23" s="10">
         <f t="shared" si="3"/>
-        <v>6380</v>
-      </c>
-      <c r="F23" s="23">
-        <f t="shared" si="4"/>
-        <v>23701.599999999984</v>
-      </c>
-      <c r="G23" s="23">
-        <f t="shared" si="5"/>
-        <v>47863.566666666695</v>
+        <v>7741.3600000000015</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="4"/>
+        <v>18675.039999999994</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="5"/>
+        <v>57702.798266666643</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1119,15 +1119,15 @@
       </c>
       <c r="E24" s="10">
         <f t="shared" si="3"/>
-        <v>6670</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" si="4"/>
-        <v>23324.399999999983</v>
-      </c>
-      <c r="G24" s="23">
-        <f t="shared" si="5"/>
-        <v>50039.183333333363</v>
+        <v>8093.2400000000016</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="4"/>
+        <v>18069.359999999993</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="5"/>
+        <v>60325.652733333307</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1142,15 +1142,15 @@
       </c>
       <c r="E25" s="10">
         <f t="shared" si="3"/>
-        <v>6960</v>
-      </c>
-      <c r="F25" s="23">
-        <f t="shared" si="4"/>
-        <v>22947.199999999983</v>
-      </c>
-      <c r="G25" s="23">
-        <f t="shared" si="5"/>
-        <v>52214.800000000032</v>
+        <v>8445.1200000000008</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="4"/>
+        <v>17463.679999999993</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="5"/>
+        <v>62948.507199999971</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E26" s="10">
         <f t="shared" si="3"/>
-        <v>7250</v>
-      </c>
-      <c r="F26" s="23">
-        <f t="shared" si="4"/>
-        <v>22569.999999999982</v>
-      </c>
-      <c r="G26" s="23">
-        <f t="shared" si="5"/>
-        <v>54390.416666666701</v>
+        <v>8797</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="4"/>
+        <v>16857.999999999993</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="5"/>
+        <v>65571.361666666635</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1176,15 +1176,15 @@
       </c>
       <c r="E27" s="10">
         <f t="shared" si="3"/>
-        <v>7540</v>
-      </c>
-      <c r="F27" s="23">
-        <f t="shared" si="4"/>
-        <v>22192.799999999981</v>
-      </c>
-      <c r="G27" s="23">
-        <f t="shared" si="5"/>
-        <v>56566.033333333369</v>
+        <v>9148.8799999999992</v>
+      </c>
+      <c r="F27" s="20">
+        <f t="shared" si="4"/>
+        <v>16252.319999999992</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="5"/>
+        <v>68194.216133333306</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1193,15 +1193,15 @@
       </c>
       <c r="E28" s="10">
         <f t="shared" si="3"/>
-        <v>7830</v>
-      </c>
-      <c r="F28" s="23">
-        <f t="shared" si="4"/>
-        <v>21815.59999999998</v>
-      </c>
-      <c r="G28" s="23">
-        <f t="shared" si="5"/>
-        <v>58741.650000000038</v>
+        <v>9500.7599999999984</v>
+      </c>
+      <c r="F28" s="20">
+        <f t="shared" si="4"/>
+        <v>15646.639999999992</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="5"/>
+        <v>70817.070599999977</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1210,15 +1210,15 @@
       </c>
       <c r="E29" s="10">
         <f t="shared" si="3"/>
-        <v>8120</v>
-      </c>
-      <c r="F29" s="23">
-        <f t="shared" si="4"/>
-        <v>21438.39999999998</v>
-      </c>
-      <c r="G29" s="23">
-        <f t="shared" si="5"/>
-        <v>60917.266666666706</v>
+        <v>9852.6399999999976</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="4"/>
+        <v>15040.959999999992</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="5"/>
+        <v>73439.925066666648</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1227,15 +1227,15 @@
       </c>
       <c r="E30" s="10">
         <f t="shared" si="3"/>
-        <v>8410</v>
-      </c>
-      <c r="F30" s="23">
-        <f t="shared" si="4"/>
-        <v>21061.199999999979</v>
-      </c>
-      <c r="G30" s="23">
-        <f t="shared" si="5"/>
-        <v>63092.883333333375</v>
+        <v>10204.519999999997</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="4"/>
+        <v>14435.279999999992</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="5"/>
+        <v>76062.77953333332</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1244,15 +1244,15 @@
       </c>
       <c r="E31" s="10">
         <f t="shared" si="3"/>
-        <v>8700</v>
-      </c>
-      <c r="F31" s="23">
-        <f t="shared" si="4"/>
-        <v>20683.999999999978</v>
-      </c>
-      <c r="G31" s="23">
-        <f t="shared" si="5"/>
-        <v>65268.500000000044</v>
+        <v>10556.399999999996</v>
+      </c>
+      <c r="F31" s="20">
+        <f t="shared" si="4"/>
+        <v>13829.599999999991</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="5"/>
+        <v>78685.633999999991</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1261,15 +1261,15 @@
       </c>
       <c r="E32" s="10">
         <f t="shared" si="3"/>
-        <v>8990</v>
-      </c>
-      <c r="F32" s="23">
-        <f t="shared" si="4"/>
-        <v>20306.799999999977</v>
-      </c>
-      <c r="G32" s="23">
-        <f t="shared" si="5"/>
-        <v>67444.116666666712</v>
+        <v>10908.279999999995</v>
+      </c>
+      <c r="F32" s="20">
+        <f t="shared" si="4"/>
+        <v>13223.919999999991</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="5"/>
+        <v>81308.488466666662</v>
       </c>
     </row>
     <row r="33" spans="4:7">
@@ -1278,15 +1278,15 @@
       </c>
       <c r="E33" s="10">
         <f t="shared" si="3"/>
-        <v>9280</v>
-      </c>
-      <c r="F33" s="23">
-        <f t="shared" si="4"/>
-        <v>19929.599999999977</v>
-      </c>
-      <c r="G33" s="23">
-        <f t="shared" si="5"/>
-        <v>69619.733333333381</v>
+        <v>11260.159999999994</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="4"/>
+        <v>12618.239999999991</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="5"/>
+        <v>83931.342933333333</v>
       </c>
     </row>
     <row r="34" spans="4:7">
@@ -1295,15 +1295,15 @@
       </c>
       <c r="E34" s="10">
         <f t="shared" si="3"/>
-        <v>9570</v>
-      </c>
-      <c r="F34" s="23">
-        <f t="shared" si="4"/>
-        <v>19552.399999999976</v>
-      </c>
-      <c r="G34" s="23">
-        <f t="shared" si="5"/>
-        <v>71795.350000000049</v>
+        <v>11612.039999999994</v>
+      </c>
+      <c r="F34" s="20">
+        <f t="shared" si="4"/>
+        <v>12012.55999999999</v>
+      </c>
+      <c r="G34" s="20">
+        <f t="shared" si="5"/>
+        <v>86554.197400000005</v>
       </c>
     </row>
     <row r="35" spans="4:7">
@@ -1312,15 +1312,15 @@
       </c>
       <c r="E35" s="10">
         <f t="shared" si="3"/>
-        <v>9860</v>
-      </c>
-      <c r="F35" s="23">
-        <f t="shared" si="4"/>
-        <v>19175.199999999975</v>
-      </c>
-      <c r="G35" s="23">
-        <f t="shared" si="5"/>
-        <v>73970.966666666718</v>
+        <v>11963.919999999993</v>
+      </c>
+      <c r="F35" s="20">
+        <f t="shared" si="4"/>
+        <v>11406.87999999999</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" si="5"/>
+        <v>89177.051866666676</v>
       </c>
     </row>
     <row r="36" spans="4:7">
@@ -1329,15 +1329,15 @@
       </c>
       <c r="E36" s="10">
         <f t="shared" si="3"/>
-        <v>10150</v>
-      </c>
-      <c r="F36" s="23">
-        <f t="shared" si="4"/>
-        <v>18797.999999999975</v>
-      </c>
-      <c r="G36" s="23">
-        <f t="shared" si="5"/>
-        <v>76146.583333333387</v>
+        <v>12315.799999999992</v>
+      </c>
+      <c r="F36" s="20">
+        <f t="shared" si="4"/>
+        <v>10801.19999999999</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="5"/>
+        <v>91799.906333333347</v>
       </c>
     </row>
     <row r="37" spans="4:7">
@@ -1346,21 +1346,21 @@
       </c>
       <c r="E37" s="10">
         <f t="shared" si="3"/>
-        <v>10440</v>
-      </c>
-      <c r="F37" s="23">
-        <f t="shared" si="4"/>
-        <v>18420.799999999974</v>
-      </c>
-      <c r="G37" s="23">
-        <f t="shared" si="5"/>
-        <v>78322.200000000055</v>
+        <v>12667.679999999991</v>
+      </c>
+      <c r="F37" s="20">
+        <f t="shared" si="4"/>
+        <v>10195.51999999999</v>
+      </c>
+      <c r="G37" s="20">
+        <f t="shared" si="5"/>
+        <v>94422.760800000018</v>
       </c>
     </row>
     <row r="38" spans="4:7">
-      <c r="E38" s="20"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
